--- a/Neonest_bom.xlsx
+++ b/Neonest_bom.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Draxter\Documents\Hardware\Kicad\Neonest project\Neonest_V_1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Dropbox\Dropbox kicad\Neonest\Neonest_Ver_1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20487" windowHeight="7750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Neonest_V_1.3" localSheetId="0">Sheet1!$A$1:$H$43</definedName>
+    <definedName name="Neonest_V_1.3" localSheetId="0">Sheet1!$A$2:$H$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -63,9 +63,6 @@
     <t>Designation</t>
   </si>
   <si>
-    <t>Supplier and ref</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -376,13 +373,16 @@
   </si>
   <si>
     <t>GREEN conn,YELLOW conn,RED conn,J5</t>
+  </si>
+  <si>
+    <t>NEONEST V1.3 BOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,13 +391,27 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -412,8 +426,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,754 +714,756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>37</v>
-      </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>16</v>
-      </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>15</v>
-      </c>
-      <c r="E32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>21</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="B41" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C41" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
         <v>89</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
         <v>6</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>7</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>29</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
         <v>64</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>65</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>36</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
         <v>79</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>80</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1453,5 +1471,6 @@
     <sortCondition ref="B2:B47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>